--- a/001_GPSCamera_Document/005＿GPSカメラアプリ＿設計.xlsx
+++ b/001_GPSCamera_Document/005＿GPSカメラアプリ＿設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -344,7 +344,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,6 +372,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -388,6 +388,931 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65942</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>146383</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82828</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1086478" y="420048"/>
+          <a:ext cx="2937941" cy="4615780"/>
+          <a:chOff x="1059855" y="414132"/>
+          <a:chExt cx="2863398" cy="4538870"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1059855" y="421140"/>
+            <a:ext cx="2863398" cy="4521562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="図 6"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3437283" y="414132"/>
+            <a:ext cx="463828" cy="463828"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="図 7"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2874065" y="430696"/>
+            <a:ext cx="430695" cy="430695"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="角丸四角形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1118152" y="480391"/>
+            <a:ext cx="1722782" cy="323022"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="図 9"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1085018" y="4547154"/>
+            <a:ext cx="364435" cy="364435"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="図 10"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3387590" y="4422914"/>
+            <a:ext cx="530088" cy="530088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>16246</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>49697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>96688</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66263</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7568210" y="403483"/>
+          <a:ext cx="2937942" cy="4615780"/>
+          <a:chOff x="5631855" y="414132"/>
+          <a:chExt cx="2863398" cy="4538870"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="図 12"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5631855" y="421140"/>
+            <a:ext cx="2863398" cy="4521562"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="図 13"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8009283" y="414132"/>
+            <a:ext cx="463828" cy="463828"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="図 14"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7446065" y="430696"/>
+            <a:ext cx="430695" cy="430695"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="角丸四角形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5690152" y="480391"/>
+            <a:ext cx="1722782" cy="323022"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="図 16"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5657018" y="4547154"/>
+            <a:ext cx="364435" cy="364435"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="図 17"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7959590" y="4422914"/>
+            <a:ext cx="530088" cy="530088"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>26029</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>43185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="グループ化 29"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7986208" y="1281435"/>
+          <a:ext cx="2055863" cy="2093136"/>
+          <a:chOff x="7863744" y="1050114"/>
+          <a:chExt cx="2055863" cy="2093136"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="角丸四角形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7863744" y="1050114"/>
+            <a:ext cx="2055863" cy="2093136"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 1519"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="29" name="グループ化 28"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7896875" y="1058397"/>
+            <a:ext cx="1999660" cy="2007950"/>
+            <a:chOff x="7896875" y="1058397"/>
+            <a:chExt cx="1999660" cy="2007950"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7896875" y="1058397"/>
+              <a:ext cx="1412186" cy="353786"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+                <a:t>Add Photo</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7900191" y="1382370"/>
+              <a:ext cx="1412186" cy="353785"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+                <a:t>Add Video</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7903504" y="1733556"/>
+              <a:ext cx="1993031" cy="353784"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+                <a:t>Change</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                <a:t> Language</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7898533" y="2040959"/>
+              <a:ext cx="1412186" cy="353786"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+                <a:t>Import KML</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7901845" y="2383856"/>
+              <a:ext cx="1412186" cy="353785"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+                <a:t>Export</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                <a:t> KML</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7905153" y="2712562"/>
+              <a:ext cx="1412186" cy="353785"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+                <a:t>Cancel</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163001</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2782957" y="2468218"/>
+          <a:ext cx="361783" cy="323021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12069536" y="394607"/>
+          <a:ext cx="2939143" cy="4599214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,10 +1602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A2:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -1330,54 +2258,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="32">
         <v>42250</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1386,23 +2314,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="31"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1464,17 +2392,17 @@
       <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="35" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="37"/>
+      <c r="M8" s="36"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="7"/>
@@ -1493,7 +2421,7 @@
       <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="23"/>
@@ -1514,7 +2442,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
@@ -1533,7 +2461,7 @@
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
@@ -1552,7 +2480,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -1571,7 +2499,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -1588,6 +2516,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B2:M2"/>
@@ -1601,14 +2537,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -1631,14 +2559,15 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW35" sqref="AW35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1649,9 +2578,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1666,10 +2597,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1684,10 +2615,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/001_GPSCamera_Document/005＿GPSカメラアプリ＿設計.xlsx
+++ b/001_GPSCamera_Document/005＿GPSカメラアプリ＿設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変更の説明</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>参照</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -122,6 +118,10 @@
   </si>
   <si>
     <t>GPSCameraApp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更内容</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -222,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -231,21 +231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
         <color indexed="64"/>
@@ -282,11 +267,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -303,44 +446,29 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,16 +491,53 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -394,233 +559,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>65942</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>146383</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>82828</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="グループ化 19"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1086478" y="420048"/>
-          <a:ext cx="2937941" cy="4615780"/>
-          <a:chOff x="1059855" y="414132"/>
-          <a:chExt cx="2863398" cy="4538870"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1059855" y="421140"/>
-            <a:ext cx="2863398" cy="4521562"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="図 6"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3437283" y="414132"/>
-            <a:ext cx="463828" cy="463828"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="図 7"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2874065" y="430696"/>
-            <a:ext cx="430695" cy="430695"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="角丸四角形 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1118152" y="480391"/>
-            <a:ext cx="1722782" cy="323022"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="図 9"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1085018" y="4547154"/>
-            <a:ext cx="364435" cy="364435"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="図 10"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3387590" y="4422914"/>
-            <a:ext cx="530088" cy="530088"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>16246</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -639,8 +577,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7568210" y="403483"/>
-          <a:ext cx="2937942" cy="4615780"/>
+          <a:off x="7417171" y="392597"/>
+          <a:ext cx="2880792" cy="4474266"/>
           <a:chOff x="5631855" y="414132"/>
           <a:chExt cx="2863398" cy="4538870"/>
         </a:xfrm>
@@ -787,42 +725,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="17" name="図 16"/>
+          <xdr:cNvPr id="18" name="図 17"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5657018" y="4547154"/>
-            <a:ext cx="364435" cy="364435"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="18" name="図 17"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -866,8 +775,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7986208" y="1281435"/>
-          <a:ext cx="2055863" cy="2093136"/>
+          <a:off x="7827004" y="1243335"/>
+          <a:ext cx="2015042" cy="2027822"/>
           <a:chOff x="7863744" y="1050114"/>
           <a:chExt cx="2055863" cy="2093136"/>
         </a:xfrm>
@@ -1214,48 +1123,274 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33131</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65942</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>163001</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>146383</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82828</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2782957" y="2468218"/>
-          <a:ext cx="361783" cy="323021"/>
+          <a:off x="1066067" y="409162"/>
+          <a:ext cx="2880791" cy="4474266"/>
+          <a:chOff x="1066067" y="409162"/>
+          <a:chExt cx="2880791" cy="4474266"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="20" name="グループ化 19"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1066067" y="409162"/>
+            <a:ext cx="2880791" cy="4474266"/>
+            <a:chOff x="1059855" y="414132"/>
+            <a:chExt cx="2863398" cy="4538870"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="図 4"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1059855" y="421140"/>
+              <a:ext cx="2863398" cy="4521562"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="図 6"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3437283" y="414132"/>
+              <a:ext cx="463828" cy="463828"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="図 7"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2874065" y="430696"/>
+              <a:ext cx="430695" cy="430695"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="角丸四角形 8"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1118152" y="480391"/>
+              <a:ext cx="1722782" cy="323022"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="図 9"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1085018" y="4547154"/>
+              <a:ext cx="364435" cy="364435"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="図 10"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3387590" y="4422914"/>
+              <a:ext cx="530088" cy="530088"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="31" name="図 30"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2800350" y="2433431"/>
+            <a:ext cx="363026" cy="318051"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1607,13 +1742,13 @@
   </sheetPr>
   <dimension ref="A2:R14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="15" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="7" width="8.875" style="1" customWidth="1"/>
@@ -2258,54 +2393,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="27" t="s">
-        <v>17</v>
+      <c r="B2" s="22" t="s">
+        <v>16</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30" t="s">
-        <v>18</v>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
+        <v>17</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="31"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="27">
         <v>42250</v>
       </c>
-      <c r="M4" s="32"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2314,23 +2449,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="31" t="s">
-        <v>16</v>
+      <c r="C5" s="28"/>
+      <c r="D5" s="26" t="s">
+        <v>15</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>16</v>
+      <c r="I5" s="26" t="s">
+        <v>15</v>
       </c>
-      <c r="J5" s="31"/>
+      <c r="J5" s="26"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -2377,30 +2512,30 @@
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="33" t="s">
         <v>12</v>
-      </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="34" t="s">
-        <v>13</v>
       </c>
       <c r="M8" s="36"/>
       <c r="P8" s="3"/>
@@ -2408,111 +2543,111 @@
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="13">
+      <c r="B9" s="37">
         <v>1</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="10">
         <v>42250</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>0.1</v>
       </c>
       <c r="E9" s="16"/>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="38"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13">
+      <c r="B10" s="37">
         <v>2</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="38"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13">
+      <c r="B11" s="37">
         <v>3</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="38"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="38"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13">
+      <c r="B13" s="39">
         <v>5</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="A14" s="13"/>
+      <c r="E14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2559,8 +2694,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW35" sqref="AW35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BB14" sqref="BB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2579,7 +2714,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="A1:XFD1048576"/>
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2597,7 +2732,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="A1:XFD1048576"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2615,7 +2750,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH26" sqref="AH26"/>
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
